--- a/va_facility_data_2025-02-20/Elmira VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Elmira%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Elmira VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Elmira%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R0c169f35e05e4a618d309e60afe50f0c"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Ra8b39b42cd1b4f488a7ff558be1fa146"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rfcb82cee70ec4ed1bf3802339f4f3e99"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Rb2f1dd843b754d688e76ab609d4da45f"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R144e0aaeb881495786c430f4976ee3d0"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R2876efaf4543468d963281271e5037c8"/>
   </x:sheets>
 </x:workbook>
 </file>
